--- a/Example json file.xlsx
+++ b/Example json file.xlsx
@@ -7,6 +7,14 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Project" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Test Hole" sheetId="2" r:id="rId3"/>
+    <x:sheet name="BackFill" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Piezometers" sheetId="4" r:id="rId5"/>
+    <x:sheet name="Field Tests" sheetId="5" r:id="rId6"/>
+    <x:sheet name="Comments" sheetId="6" r:id="rId7"/>
+    <x:sheet name="Drill Runs" sheetId="7" r:id="rId8"/>
+    <x:sheet name="Discontinuities" sheetId="8" r:id="rId9"/>
+    <x:sheet name="Drilling Details" sheetId="9" r:id="rId10"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -149,6 +157,1239 @@
   </x:si>
   <x:si>
     <x:t>25415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>groundwaterDepth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>groundwaterElev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testHoleType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>elevationSurveyMethod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>elevationBenchmark</x:t>
+  </x:si>
+  <x:si>
+    <x:t>horizontalSurveyMethod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>horizontalSurveyBenchmark</x:t>
+  </x:si>
+  <x:si>
+    <x:t>startDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>endDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>contractorName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>contractorAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>loggedBy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enteredBy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reviewedBy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>overburdenThickness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rockDrillDepth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>coreBoxes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drillerName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>disturbed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>undisturbed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>holeDrillBitSize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>equipment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trendAzimuth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>plunge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>verticalityType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stationLine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stationNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>offset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>locationDescription</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPTid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPTtype</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPTdrop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPTweight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPTenergyLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPTliftingMechanism</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPTsamplerType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPTsamplerInnerDia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>termination</x:t>
+  </x:si>
+  <x:si>
+    <x:t>progressStatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>extraTags</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-37.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drill Hole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191.9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3217217897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8308291981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>752509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3028395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-10.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SamplePlumbness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Automatic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ground Surface at {elevation}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test Hole Terminated at {depth}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Completed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3163291581</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8263471824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>753802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3026436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-15.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3204660961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8305840132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>752581</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3027938</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Planned</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3137878154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8212563082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>755266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3025516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-17.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>American Drill and Test Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526 Marine Dr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Backfilling</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3238868569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8321752514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>752120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3029182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GroundSurface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndOf TestHole at 185.7 (ft)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3143091995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.822058988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>755035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3025705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-19.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndOf TestHole at 183.3 (ft)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3192709868</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8332840152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>751808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3027500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndOf TestHole at 190 (ft)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-38.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3193229159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8293553346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>752935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3027523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/15/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/23/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3163054421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8145903413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>757175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3026440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/3/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T500 Track, B50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VerticalityLog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ground Surface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>End Of  Test Hole at 154 (ft)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3191599553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8280768215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>753302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3027465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-31.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3226343115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8340006529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>751598</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3028724</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndOf TestHole at 110 (ft)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3178313038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.826347132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>753800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3026983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-19.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abandoned</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>199.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3175720762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.827868095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>753364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3026887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-19.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3112233821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8186300524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>756023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3024585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-6.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Utility Locating</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3157811067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-81.8296087637</x:t>
+  </x:si>
+  <x:si>
+    <x:t>752867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3026233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-12.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndOf TestHole at 200 (ft)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fromDepth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>toDepth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>backfillCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>piezometerNo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>piezoType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>plugType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>endCapType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>endCapTypeNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pipeDia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>installedStickup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>installedStickupValue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Piezometer #1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Standpipe ($SP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J Plug ($JP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>true</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locking Well Cap (Steel) ($LSTL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>columns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Standard Penetration Test (SPT)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N60,N1,N2,N3,N,N4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drilling Measurements</x:t>
+  </x:si>
+  <x:si>
+    <x:t>torque, pressure</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cone Penetration Test (CPT)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qc, fs, u2, vs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slower drilling below 2.5 ft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>totalCoreRecovered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>totalLength</x:t>
+  </x:si>
+  <x:si>
+    <x:t>runNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>coreboxNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rqdRmu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rqdCoreLength</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rmr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fractures</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tcr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tmr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jointSpacing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jointCondition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rockStrength</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rockWeathering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rockAlteration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>524-12A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>524-12B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Low</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alpha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>beta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jconRMR76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>defectType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roughness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shape</x:t>
+  </x:si>
+  <x:si>
+    <x:t>infillType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>infillCharacter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>infillThickness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smooth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Undulating</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quartz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.5 - 2.5mm  (Open)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stepped</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Partially Coated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;0.1mm (Very Tight)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Irregular</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock fragments and clay mixtures</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.5 - 10mm (Moderately Wide)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>holeDiameter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>casingDiameter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drillRodInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drillRigModel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drillBitInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drillRigType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drillBitType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>casingType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drillMethod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drillMethodSymbol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>backfillPattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>instrumentInstalled</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Auger (Hollow-Stem)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">25 mm </x:t>
+  </x:si>
+  <x:si>
+    <x:t>barge (Barge rig)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>insert roller cone (Insert roller cone bit)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>casing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Auger (Solid-Stem)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024-10-18T00:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:45:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>some notes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -244,6 +1485,189 @@
     <x:tableColumn id="27" name="totalTestholes"/>
     <x:tableColumn id="28" name="totalCrossSections"/>
     <x:tableColumn id="29" name="Contract Number"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AX16" totalsRowShown="0">
+  <x:autoFilter ref="A1:AX16"/>
+  <x:tableColumns count="50">
+    <x:tableColumn id="1" name="groundwaterDepth"/>
+    <x:tableColumn id="2" name="groundwaterElev"/>
+    <x:tableColumn id="3" name="name"/>
+    <x:tableColumn id="4" name="testHoleType"/>
+    <x:tableColumn id="5" name="depth"/>
+    <x:tableColumn id="6" name="latitude"/>
+    <x:tableColumn id="7" name="longitude"/>
+    <x:tableColumn id="8" name="easting"/>
+    <x:tableColumn id="9" name="northing"/>
+    <x:tableColumn id="10" name="elevation"/>
+    <x:tableColumn id="11" name="elevationSurveyMethod"/>
+    <x:tableColumn id="12" name="elevationBenchmark"/>
+    <x:tableColumn id="13" name="horizontalSurveyMethod"/>
+    <x:tableColumn id="14" name="horizontalSurveyBenchmark"/>
+    <x:tableColumn id="15" name="startDate"/>
+    <x:tableColumn id="16" name="endDate"/>
+    <x:tableColumn id="17" name="contractorName"/>
+    <x:tableColumn id="18" name="contractorAddress"/>
+    <x:tableColumn id="19" name="loggedBy"/>
+    <x:tableColumn id="20" name="enteredBy"/>
+    <x:tableColumn id="21" name="reviewedBy"/>
+    <x:tableColumn id="22" name="overburdenThickness"/>
+    <x:tableColumn id="23" name="rockDrillDepth"/>
+    <x:tableColumn id="24" name="coreBoxes"/>
+    <x:tableColumn id="25" name="drillerName"/>
+    <x:tableColumn id="26" name="disturbed"/>
+    <x:tableColumn id="27" name="undisturbed"/>
+    <x:tableColumn id="28" name="holeDrillBitSize"/>
+    <x:tableColumn id="29" name="equipment"/>
+    <x:tableColumn id="30" name="trendAzimuth"/>
+    <x:tableColumn id="31" name="plunge"/>
+    <x:tableColumn id="32" name="verticalityType"/>
+    <x:tableColumn id="33" name="structureName"/>
+    <x:tableColumn id="34" name="structureNumber"/>
+    <x:tableColumn id="35" name="stationLine"/>
+    <x:tableColumn id="36" name="stationNumber"/>
+    <x:tableColumn id="37" name="offset"/>
+    <x:tableColumn id="38" name="locationDescription"/>
+    <x:tableColumn id="39" name="SPTid"/>
+    <x:tableColumn id="40" name="SPTtype"/>
+    <x:tableColumn id="41" name="SPTdrop"/>
+    <x:tableColumn id="42" name="SPTweight"/>
+    <x:tableColumn id="43" name="SPTenergyLevel"/>
+    <x:tableColumn id="44" name="SPTliftingMechanism"/>
+    <x:tableColumn id="45" name="SPTsamplerType"/>
+    <x:tableColumn id="46" name="SPTsamplerInnerDia"/>
+    <x:tableColumn id="47" name="start"/>
+    <x:tableColumn id="48" name="termination"/>
+    <x:tableColumn id="49" name="progressStatus"/>
+    <x:tableColumn id="50" name="extraTags"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C8" totalsRowShown="0">
+  <x:autoFilter ref="A1:C8"/>
+  <x:tableColumns count="3">
+    <x:tableColumn id="1" name="fromDepth"/>
+    <x:tableColumn id="2" name="toDepth"/>
+    <x:tableColumn id="3" name="backfillCode"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H4" totalsRowShown="0">
+  <x:autoFilter ref="A1:H4"/>
+  <x:tableColumns count="8">
+    <x:tableColumn id="1" name="piezometerNo"/>
+    <x:tableColumn id="2" name="piezoType"/>
+    <x:tableColumn id="3" name="plugType"/>
+    <x:tableColumn id="4" name="endCapType"/>
+    <x:tableColumn id="5" name="endCapTypeNumber"/>
+    <x:tableColumn id="6" name="pipeDia"/>
+    <x:tableColumn id="7" name="installedStickup"/>
+    <x:tableColumn id="8" name="installedStickupValue"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C7" totalsRowShown="0">
+  <x:autoFilter ref="A1:C7"/>
+  <x:tableColumns count="3">
+    <x:tableColumn id="1" name="testTitle"/>
+    <x:tableColumn id="2" name="depth"/>
+    <x:tableColumn id="3" name="columns"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:B2" totalsRowShown="0">
+  <x:autoFilter ref="A1:B2"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="depth"/>
+    <x:tableColumn id="2" name="description"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:R9" totalsRowShown="0">
+  <x:autoFilter ref="A1:R9"/>
+  <x:tableColumns count="18">
+    <x:tableColumn id="1" name="fromDepth"/>
+    <x:tableColumn id="2" name="toDepth"/>
+    <x:tableColumn id="3" name="totalCoreRecovered"/>
+    <x:tableColumn id="4" name="totalLength"/>
+    <x:tableColumn id="5" name="runNumber"/>
+    <x:tableColumn id="6" name="coreboxNumber"/>
+    <x:tableColumn id="7" name="rqdRmu"/>
+    <x:tableColumn id="8" name="rqdCoreLength"/>
+    <x:tableColumn id="9" name="rmr"/>
+    <x:tableColumn id="10" name="fractures"/>
+    <x:tableColumn id="11" name="tcr"/>
+    <x:tableColumn id="12" name="scr"/>
+    <x:tableColumn id="13" name="tmr"/>
+    <x:tableColumn id="14" name="jointSpacing"/>
+    <x:tableColumn id="15" name="jointCondition"/>
+    <x:tableColumn id="16" name="rockStrength"/>
+    <x:tableColumn id="17" name="rockWeathering"/>
+    <x:tableColumn id="18" name="rockAlteration"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:J79" totalsRowShown="0">
+  <x:autoFilter ref="A1:J79"/>
+  <x:tableColumns count="10">
+    <x:tableColumn id="1" name="depth"/>
+    <x:tableColumn id="2" name="alpha"/>
+    <x:tableColumn id="3" name="beta"/>
+    <x:tableColumn id="4" name="jconRMR76"/>
+    <x:tableColumn id="5" name="defectType"/>
+    <x:tableColumn id="6" name="roughness"/>
+    <x:tableColumn id="7" name="shape"/>
+    <x:tableColumn id="8" name="infillType"/>
+    <x:tableColumn id="9" name="infillCharacter"/>
+    <x:tableColumn id="10" name="infillThickness"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:Q17" totalsRowShown="0">
+  <x:autoFilter ref="A1:Q17"/>
+  <x:tableColumns count="17">
+    <x:tableColumn id="1" name="fromDepth"/>
+    <x:tableColumn id="2" name="toDepth"/>
+    <x:tableColumn id="3" name="holeDiameter"/>
+    <x:tableColumn id="4" name="casingDiameter"/>
+    <x:tableColumn id="5" name="drillRodInfo"/>
+    <x:tableColumn id="6" name="drillRigModel"/>
+    <x:tableColumn id="7" name="drillBitInfo"/>
+    <x:tableColumn id="8" name="drillRigType"/>
+    <x:tableColumn id="9" name="drillBitType"/>
+    <x:tableColumn id="10" name="casingType"/>
+    <x:tableColumn id="11" name="drillMethod"/>
+    <x:tableColumn id="12" name="drillMethodSymbol"/>
+    <x:tableColumn id="13" name="backfillPattern"/>
+    <x:tableColumn id="14" name="date"/>
+    <x:tableColumn id="15" name="time"/>
+    <x:tableColumn id="16" name="notes"/>
+    <x:tableColumn id="17" name="instrumentInstalled"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -727,7 +2151,6833 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
+    <x:tablePart r:id="rId13"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:AX16"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:50">
+      <x:c r="A1" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="T1" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="U1" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="V1" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="W1" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="X1" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="Y1" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Z1" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AA1" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AB1" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AC1" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AD1" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="AE1" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AF1" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="AG1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="AH1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="AI1" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="AJ1" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="AK1" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AL1" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="AM1" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="AN1" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="AO1" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP1" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="AQ1" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AR1" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AS1" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="AT1" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="AU1" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="AV1" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="AW1" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="AX1" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:50">
+      <x:c r="A2" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="T2" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="U2" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="V2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE2" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF2" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN2" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO2" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP2" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ2" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU2" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AV2" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AW2" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AX2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:50">
+      <x:c r="A3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD3" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE3" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF3" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN3" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO3" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP3" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ3" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT3" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU3" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AV3" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AW3" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AX3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:50">
+      <x:c r="A4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE4" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF4" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN4" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO4" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP4" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ4" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU4" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AV4" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AW4" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="AX4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:50">
+      <x:c r="A5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE5" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF5" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN5" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO5" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP5" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ5" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU5" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AV5" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AW5" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="AX5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:50">
+      <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE6" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF6" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN6" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO6" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP6" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ6" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU6" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AV6" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="AW6" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AX6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:50">
+      <x:c r="A7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="S7" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="T7" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="U7" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="V7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE7" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF7" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN7" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO7" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP7" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ7" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU7" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AV7" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="AW7" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="AX7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:50">
+      <x:c r="A8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE8" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF8" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN8" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO8" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP8" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ8" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU8" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AV8" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="AW8" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AX8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:50">
+      <x:c r="A9" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE9" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF9" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN9" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO9" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP9" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ9" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU9" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AV9" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AW9" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="AX9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:50">
+      <x:c r="A10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="P10" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="Q10" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="R10" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="S10" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="T10" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="U10" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="V10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC10" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="AD10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE10" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF10" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="AG10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN10" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO10" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP10" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ10" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU10" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="AV10" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="AW10" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AX10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:50">
+      <x:c r="A11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE11" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF11" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN11" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO11" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP11" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ11" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU11" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AV11" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AW11" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AX11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:50">
+      <x:c r="A12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE12" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF12" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN12" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO12" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP12" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ12" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU12" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AV12" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="AW12" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AX12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:50">
+      <x:c r="A13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE13" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF13" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN13" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO13" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP13" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ13" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU13" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AV13" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AW13" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="AX13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:50">
+      <x:c r="A14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD14" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE14" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF14" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN14" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO14" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP14" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ14" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT14" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU14" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AV14" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AW14" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AX14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:50">
+      <x:c r="A15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD15" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE15" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF15" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN15" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO15" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP15" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ15" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT15" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU15" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AV15" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AW15" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="AX15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:50">
+      <x:c r="A16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AE16" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AF16" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AG16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN16" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO16" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AP16" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="AQ16" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AR16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AT16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AU16" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AV16" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="AW16" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AX16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId14"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C8"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId15"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId16"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C7"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId17"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId18"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:R9"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:18">
+      <x:c r="A1" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:18">
+      <x:c r="A2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:18">
+      <x:c r="A3" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:18">
+      <x:c r="A4" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:18">
+      <x:c r="A5" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:18">
+      <x:c r="A6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P6" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:18">
+      <x:c r="A7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:18">
+      <x:c r="A8" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="O8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:18">
+      <x:c r="A9" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId19"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:J79"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:10">
+      <x:c r="A1" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:10">
+      <x:c r="A31" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:10">
+      <x:c r="A36" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:10">
+      <x:c r="A39" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J39" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:10">
+      <x:c r="A40" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:10">
+      <x:c r="A42" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:10">
+      <x:c r="A43" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J52" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J53" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J56" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J57" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J58" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J59" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:10">
+      <x:c r="A60" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:10">
+      <x:c r="A61" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J61" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:10">
+      <x:c r="A62" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:10">
+      <x:c r="A63" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J63" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:10">
+      <x:c r="A64" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J64" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:10">
+      <x:c r="A65" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J65" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:10">
+      <x:c r="A66" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J66" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:10">
+      <x:c r="A67" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J67" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:10">
+      <x:c r="A68" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J68" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:10">
+      <x:c r="A69" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J69" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:10">
+      <x:c r="A70" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J70" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:10">
+      <x:c r="A71" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J71" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:10">
+      <x:c r="A72" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J72" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:10">
+      <x:c r="A73" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J73" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:10">
+      <x:c r="A74" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J74" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:10">
+      <x:c r="A75" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J75" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:10">
+      <x:c r="A76" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J76" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:10">
+      <x:c r="A77" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J77" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:10">
+      <x:c r="A78" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J78" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:10">
+      <x:c r="A79" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J79" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId20"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:Q17"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:17">
+      <x:c r="A1" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:17">
+      <x:c r="A2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:17">
+      <x:c r="A3" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:17">
+      <x:c r="A4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:17">
+      <x:c r="A5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:17">
+      <x:c r="A6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:17">
+      <x:c r="A7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:17">
+      <x:c r="A8" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="O8" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="P8" s="0" t="s">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c r="Q8" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:17">
+      <x:c r="A9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:17">
+      <x:c r="A10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q10" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:17">
+      <x:c r="A11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q11" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:17">
+      <x:c r="A12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q12" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:17">
+      <x:c r="A13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q13" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:17">
+      <x:c r="A14" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:17">
+      <x:c r="A15" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:17">
+      <x:c r="A16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:17">
+      <x:c r="A17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q17" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId21"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/Example json file.xlsx
+++ b/Example json file.xlsx
@@ -15,6 +15,7 @@
     <x:sheet name="Drill Runs" sheetId="7" r:id="rId8"/>
     <x:sheet name="Discontinuities" sheetId="8" r:id="rId9"/>
     <x:sheet name="Drilling Details" sheetId="9" r:id="rId10"/>
+    <x:sheet name="Stratigraphy" sheetId="10" r:id="rId11"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -1390,6 +1391,618 @@
   </x:si>
   <x:si>
     <x:t>0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>soilSymbol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>agsLegendCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dataEntryMode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine SAND with Trace of Silt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green Gray Fine Sandy CLAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Clayey Fine Sandy SILT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Fine SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown Silty CLAY with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Coarse to Fine SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine Sandy Silty CLAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Fine to Coarse SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Fine to Coarse SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Coarse to Fine SAND with Trace of Shell Fragments and Gravel (1/8" to 1/4" Diameter)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green to Gray Fine Sandy Silty CLAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green to Gray Silty Fine to Coarse  SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine Sandy Silty CLAY with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Fine SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine to Coarse Sandy CLAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine to Coarse SAND with Little Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Clayey Coarse to Fine Sandy SILT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown Fine to Coarse SAND with Trace of Silt and Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine SAND with Trace of Silt, Clay and Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Slightly Silty Clayey Fine SAND with Trace of  Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Light Gray Fine to Coarse Fine SAND with Trace of Silt, Clay and Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dark Gray Silty Clayey Fine SAND with Some Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Slightly Clayey Fine SAND With Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Tan Silty Fine to Coarse SAND with Some Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Fine Sand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine Sandy Clayey SILT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine Sandy SILT with Trace of Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine to Coarse Sandy Clayey SILT with Some Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine SAND with Some Shell Fragments and Trace of Silt and Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine SAND with Trace of Silt and Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green to Gray Coarse to Fine SAND with Trace of Silt and Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine Sandy Silty CLAY with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Clayey Fine SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine to Coarse SAND with Trace of Silt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown Clayey Fine Sandy SILT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Poorly-graded GRAVEL (GP); Coarse, Mostly, from Fine to Medium, Angular, 5%. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>GP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine Sandy SILT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Coarse to Fine SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine SAND with Traceof Silt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine Sandy Silty CLAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Clayey Coarse to Fine SAND with Trace of  Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Clayey Coarse to Fine SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine SAND with Trace of  Silt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Clayey SILT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty  Coarse to Fine SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine Sandy SILT with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray-Brown Silty Coarse to Fine SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty CLAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine Sandy SILT with Trace of  Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Fine SAND with Trace of  Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Coarse to Fine SAND with Trace of  Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sand</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tan Coarse to Fine SAND </x:t>
+  </x:si>
+  <x:si>
+    <x:t>CH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sand with Shell [K2]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine SAND with Trace of Shell fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Slightly Clayey Coarse to Fine SAND with Trace of Shell Fragments 1Gray Slightly Clayey Coarse to Fine SAND with Trace of Shell Fragments 2Gray Slightly Clayey Coarse to Fine SAND with Trace of Shell Fragments 3Gray Slightly Clayey Coarse to Fine SAND with Trace of Shell Fragments 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray to Brown Silty Fine Sandy CLAY with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SP-SC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown to Gray Clayey Fine Sandy SILT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Clayey Fine SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Till-Like Soil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine SAND with Trace of Silt and Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Clayey Fine to Coarse SAND with Trace of  Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-2-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine SAND with Trace of Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine to Coarse SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine to Coarse SAND with Trace of  Shell Fragments and  Silt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine Sandy SILT With Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown Coarse to Fine SAND with Trace of Silt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine Sandy SILT with Some Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Fine SAND with Some Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Coarse to Fine SAND with Some Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tan Fine to Coarse SAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green Gray Clayey Fine Sandy SILT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Fine to Coarse SAND with Trace of Silt and Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green Gray Silty Clayey Coarse to Fine SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green Gray Silty Clayey Fine SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Clayey Fine Sandy SILT with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Fine Sandy CLAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Clayey Coarse to Fine SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Coarse to Fine SAND with Trace Silt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Silty Fine to Coarse SAND with Some Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green Gray to Gray Silty Coarse to Fine SAND with Trace of Shell Fragments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gray Clayey Silty Fine SAND</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1485,6 +2098,22 @@
     <x:tableColumn id="27" name="totalTestholes"/>
     <x:tableColumn id="28" name="totalCrossSections"/>
     <x:tableColumn id="29" name="Contract Number"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:G165" totalsRowShown="0">
+  <x:autoFilter ref="A1:G165"/>
+  <x:tableColumns count="7">
+    <x:tableColumn id="1" name="fromDepth"/>
+    <x:tableColumn id="2" name="toDepth"/>
+    <x:tableColumn id="3" name="title"/>
+    <x:tableColumn id="4" name="description"/>
+    <x:tableColumn id="5" name="soilSymbol"/>
+    <x:tableColumn id="6" name="agsLegendCode"/>
+    <x:tableColumn id="7" name="dataEntryMode"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -2151,7 +2780,3824 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId13"/>
+    <x:tablePart r:id="rId14"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:G165"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="A1" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>458</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="0" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="A30" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="A31" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="A32" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="A33" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="A34" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="A35" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="A36" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="A38" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:7">
+      <x:c r="A39" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:7">
+      <x:c r="A40" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:7">
+      <x:c r="A41" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:7">
+      <x:c r="A42" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:7">
+      <x:c r="A43" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:7">
+      <x:c r="A44" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7">
+      <x:c r="A45" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:7">
+      <x:c r="A46" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:7">
+      <x:c r="A47" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:7">
+      <x:c r="A48" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:7">
+      <x:c r="A49" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:7">
+      <x:c r="A50" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:7">
+      <x:c r="A51" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:7">
+      <x:c r="A52" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:7">
+      <x:c r="A53" s="0" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:7">
+      <x:c r="A54" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:7">
+      <x:c r="A55" s="0" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:7">
+      <x:c r="A56" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:7">
+      <x:c r="A57" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:7">
+      <x:c r="A58" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:7">
+      <x:c r="A59" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:7">
+      <x:c r="A60" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:7">
+      <x:c r="A61" s="0" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:7">
+      <x:c r="A62" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:7">
+      <x:c r="A63" s="0" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:7">
+      <x:c r="A64" s="0" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:7">
+      <x:c r="A65" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:7">
+      <x:c r="A66" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:7">
+      <x:c r="A67" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:7">
+      <x:c r="A68" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:7">
+      <x:c r="A69" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:7">
+      <x:c r="A70" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:7">
+      <x:c r="A71" s="0" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:7">
+      <x:c r="A72" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:7">
+      <x:c r="A73" s="0" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:7">
+      <x:c r="A74" s="0" t="s">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:7">
+      <x:c r="A75" s="0" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:7">
+      <x:c r="A76" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:7">
+      <x:c r="A77" s="0" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:7">
+      <x:c r="A78" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:7">
+      <x:c r="A79" s="0" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:7">
+      <x:c r="A80" s="0" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:7">
+      <x:c r="A81" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:7">
+      <x:c r="A82" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:7">
+      <x:c r="A83" s="0" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:7">
+      <x:c r="A84" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:7">
+      <x:c r="A85" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>575</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:7">
+      <x:c r="A86" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:7">
+      <x:c r="A87" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:7">
+      <x:c r="A88" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:7">
+      <x:c r="A89" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:7">
+      <x:c r="A90" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G90" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:7">
+      <x:c r="A91" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G91" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:7">
+      <x:c r="A92" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:7">
+      <x:c r="A93" s="0" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G93" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:7">
+      <x:c r="A94" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:7">
+      <x:c r="A95" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G95" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:7">
+      <x:c r="A96" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:7">
+      <x:c r="A97" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:7">
+      <x:c r="A98" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:7">
+      <x:c r="A99" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:7">
+      <x:c r="A100" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:7">
+      <x:c r="A101" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:7">
+      <x:c r="A102" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:7">
+      <x:c r="A103" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F103" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G103" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:7">
+      <x:c r="A104" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F104" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G104" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:7">
+      <x:c r="A105" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F105" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G105" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:7">
+      <x:c r="A106" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F106" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G106" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:7">
+      <x:c r="A107" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F107" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G107" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:7">
+      <x:c r="A108" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F108" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G108" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:7">
+      <x:c r="A109" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F109" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G109" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:7">
+      <x:c r="A110" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F110" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G110" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:7">
+      <x:c r="A111" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F111" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G111" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:7">
+      <x:c r="A112" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F112" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G112" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:7">
+      <x:c r="A113" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F113" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G113" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:7">
+      <x:c r="A114" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F114" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G114" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:7">
+      <x:c r="A115" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D115" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E115" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F115" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G115" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:7">
+      <x:c r="A116" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F116" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G116" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:7">
+      <x:c r="A117" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D117" s="0" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="E117" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F117" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G117" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:7">
+      <x:c r="A118" s="0" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E118" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F118" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G118" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:7">
+      <x:c r="A119" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D119" s="0" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="E119" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="F119" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G119" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:7">
+      <x:c r="A120" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D120" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="E120" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F120" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G120" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:7">
+      <x:c r="A121" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D121" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="E121" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F121" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G121" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:7">
+      <x:c r="A122" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D122" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="E122" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F122" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G122" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:7">
+      <x:c r="A123" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D123" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="E123" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F123" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G123" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:7">
+      <x:c r="A124" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D124" s="0" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="E124" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F124" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G124" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:7">
+      <x:c r="A125" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D125" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="E125" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F125" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G125" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:7">
+      <x:c r="A126" s="0" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D126" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="E126" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F126" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G126" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:7">
+      <x:c r="A127" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D127" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="E127" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F127" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G127" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:7">
+      <x:c r="A128" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D128" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="E128" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F128" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G128" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:7">
+      <x:c r="A129" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D129" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="E129" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F129" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G129" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:7">
+      <x:c r="A130" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D130" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="E130" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F130" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G130" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:7">
+      <x:c r="A131" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="E131" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F131" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G131" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:7">
+      <x:c r="A132" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F132" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G132" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:7">
+      <x:c r="A133" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D133" s="0" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F133" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G133" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:7">
+      <x:c r="A134" s="0" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D134" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="E134" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F134" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G134" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:7">
+      <x:c r="A135" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D135" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="E135" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F135" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G135" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:7">
+      <x:c r="A136" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D136" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E136" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F136" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G136" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:7">
+      <x:c r="A137" s="0" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="C137" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D137" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="E137" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F137" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G137" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:7">
+      <x:c r="A138" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F138" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G138" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:7">
+      <x:c r="A139" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D139" s="0" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="E139" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F139" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G139" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:7">
+      <x:c r="A140" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="E140" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F140" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G140" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:7">
+      <x:c r="A141" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D141" s="0" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="E141" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F141" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G141" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:7">
+      <x:c r="A142" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D142" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="E142" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F142" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G142" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:7">
+      <x:c r="A143" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D143" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="E143" s="0" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="F143" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G143" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:7">
+      <x:c r="A144" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D144" s="0" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="E144" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F144" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G144" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:7">
+      <x:c r="A145" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D145" s="0" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="E145" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F145" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G145" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:7">
+      <x:c r="A146" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D146" s="0" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="E146" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F146" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G146" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:7">
+      <x:c r="A147" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D147" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="E147" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F147" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G147" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:7">
+      <x:c r="A148" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D148" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="E148" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F148" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G148" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:7">
+      <x:c r="A149" s="0" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="E149" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F149" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G149" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:7">
+      <x:c r="A150" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D150" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="E150" s="0" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="F150" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G150" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:7">
+      <x:c r="A151" s="0" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D151" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="E151" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F151" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G151" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:7">
+      <x:c r="A152" s="0" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D152" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="E152" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F152" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G152" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:7">
+      <x:c r="A153" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D153" s="0" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="E153" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="F153" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G153" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:7">
+      <x:c r="A154" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D154" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="E154" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="F154" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G154" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:7">
+      <x:c r="A155" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D155" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="E155" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F155" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G155" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:7">
+      <x:c r="A156" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="C156" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D156" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="E156" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F156" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G156" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:7">
+      <x:c r="A157" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D157" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="E157" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="F157" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G157" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:7">
+      <x:c r="A158" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="C158" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D158" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="E158" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F158" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G158" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:7">
+      <x:c r="A159" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D159" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="E159" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F159" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G159" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:7">
+      <x:c r="A160" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D160" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="E160" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F160" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G160" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:7">
+      <x:c r="A161" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D161" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="E161" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F161" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G161" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:7">
+      <x:c r="A162" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D162" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="E162" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F162" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G162" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:7">
+      <x:c r="A163" s="0" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D163" s="0" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="E163" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F163" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G163" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:7">
+      <x:c r="A164" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="C164" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D164" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="E164" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="F164" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G164" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:7">
+      <x:c r="A165" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D165" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="E165" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="F165" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G165" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId23"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -4605,7 +9051,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId14"/>
+    <x:tablePart r:id="rId15"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -4715,7 +9161,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId15"/>
+    <x:tablePart r:id="rId16"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -4841,7 +9287,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId16"/>
+    <x:tablePart r:id="rId17"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -4940,7 +9386,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId17"/>
+    <x:tablePart r:id="rId18"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -4978,7 +9424,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId18"/>
+    <x:tablePart r:id="rId19"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -5504,7 +9950,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId19"/>
+    <x:tablePart r:id="rId20"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -8054,7 +12500,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId20"/>
+    <x:tablePart r:id="rId21"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -8977,7 +13423,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId21"/>
+    <x:tablePart r:id="rId22"/>
   </x:tableParts>
 </x:worksheet>
 </file>